--- a/results/CO2_reduction_85_percent.xlsx
+++ b/results/CO2_reduction_85_percent.xlsx
@@ -585,28 +585,28 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.1927031974821962</v>
+        <v>0.1925145588950033</v>
       </c>
       <c r="E2">
-        <v>0.2537514178015768</v>
+        <v>0.2537514178015826</v>
       </c>
       <c r="F2">
-        <v>0.1767485276706317</v>
+        <v>0.1765172195024153</v>
       </c>
       <c r="G2">
-        <v>0.2441622324083482</v>
+        <v>0.1752616572355573</v>
       </c>
       <c r="H2">
-        <v>0.2572793583236543</v>
+        <v>0.2552427840919514</v>
       </c>
       <c r="I2">
-        <v>0.1555942174877734</v>
+        <v>0.1116868081692995</v>
       </c>
       <c r="J2">
-        <v>0.1648731255889925</v>
+        <v>0.1192883413222621</v>
       </c>
       <c r="K2">
-        <v>0.04838886653729255</v>
+        <v>0.04798606204998401</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -618,28 +618,28 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.1927031974821962</v>
+        <v>0.1925145588950033</v>
       </c>
       <c r="E3">
-        <v>0.2537514178015768</v>
+        <v>0.2537514178015826</v>
       </c>
       <c r="F3">
-        <v>0.1767485276706317</v>
+        <v>0.1765172195024153</v>
       </c>
       <c r="G3">
-        <v>0.2441622324083482</v>
+        <v>0.1752616572355573</v>
       </c>
       <c r="H3">
-        <v>0.2572793583236543</v>
+        <v>0.2552427840919514</v>
       </c>
       <c r="I3">
-        <v>0.1555942174877734</v>
+        <v>0.1116868081692995</v>
       </c>
       <c r="J3">
-        <v>0.1648731255889925</v>
+        <v>0.1192883413222621</v>
       </c>
       <c r="K3">
-        <v>0.04838886653729255</v>
+        <v>0.04798606204998401</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -651,28 +651,28 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>3562.639997822077</v>
+        <v>3559.152503142971</v>
       </c>
       <c r="E4">
-        <v>4691.281527113641</v>
+        <v>4691.281527113747</v>
       </c>
       <c r="F4">
-        <v>3267.674758192488</v>
+        <v>3263.398400858113</v>
       </c>
       <c r="G4">
-        <v>4513.999489893663</v>
+        <v>3240.185935210895</v>
       </c>
       <c r="H4">
-        <v>4756.505053127275</v>
+        <v>4718.853468144785</v>
       </c>
       <c r="I4">
-        <v>2876.580097758799</v>
+        <v>2064.83283729524</v>
       </c>
       <c r="J4">
-        <v>3048.125819726244</v>
+        <v>2205.367744911483</v>
       </c>
       <c r="K4">
-        <v>894.5991225234342</v>
+        <v>887.1521917172122</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -682,28 +682,28 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>3562.639997822077</v>
+        <v>3559.152503142971</v>
       </c>
       <c r="E5">
-        <v>4691.281527113641</v>
+        <v>4691.281527113747</v>
       </c>
       <c r="F5">
-        <v>3267.674758192488</v>
+        <v>3263.398400858113</v>
       </c>
       <c r="G5">
-        <v>4513.999489893663</v>
+        <v>3240.185935210895</v>
       </c>
       <c r="H5">
-        <v>4756.505053127275</v>
+        <v>4718.853468144785</v>
       </c>
       <c r="I5">
-        <v>2876.580097758799</v>
+        <v>2064.83283729524</v>
       </c>
       <c r="J5">
-        <v>3048.125819726244</v>
+        <v>2205.367744911483</v>
       </c>
       <c r="K5">
-        <v>894.5991225234342</v>
+        <v>887.1521917172122</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -717,28 +717,28 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>9.462214075294515</v>
+        <v>9.724386866426366</v>
       </c>
       <c r="E6">
-        <v>5.645849642646536</v>
+        <v>5.656360899090806</v>
       </c>
       <c r="F6">
-        <v>4.215543194124963</v>
+        <v>4.863756965873202</v>
       </c>
       <c r="G6">
-        <v>5.030680663422588</v>
+        <v>5.307971336396538</v>
       </c>
       <c r="H6">
-        <v>11.35574252082076</v>
+        <v>11.91435575865322</v>
       </c>
       <c r="I6">
-        <v>7.963744769576181</v>
+        <v>7.80790824449023</v>
       </c>
       <c r="J6">
-        <v>6.339313379151042</v>
+        <v>5.704614399607143</v>
       </c>
       <c r="K6">
-        <v>4.886911754963407</v>
+        <v>3.920645529461796</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -748,28 +748,28 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>9.462214075294515</v>
+        <v>9.724386866426366</v>
       </c>
       <c r="E7">
-        <v>5.645849642646536</v>
+        <v>5.656360899090806</v>
       </c>
       <c r="F7">
-        <v>4.215543194124963</v>
+        <v>4.863756965873202</v>
       </c>
       <c r="G7">
-        <v>5.030680663422588</v>
+        <v>5.307971336396538</v>
       </c>
       <c r="H7">
-        <v>11.35574252082076</v>
+        <v>11.91435575865322</v>
       </c>
       <c r="I7">
-        <v>7.963744769576181</v>
+        <v>7.80790824449023</v>
       </c>
       <c r="J7">
-        <v>6.339313379151042</v>
+        <v>5.704614399607143</v>
       </c>
       <c r="K7">
-        <v>4.886911754963407</v>
+        <v>3.920645529461796</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -783,28 +783,28 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E8">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F8">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G8">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H8">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I8">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J8">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K8">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -814,28 +814,28 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E9">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F9">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G9">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H9">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I9">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J9">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K9">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -909,22 +909,22 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E12">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F12">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G12">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H12">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K12">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -934,22 +934,22 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E13">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F13">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G13">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H13">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K13">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -990,28 +990,28 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E15">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F15">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G15">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H15">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I15">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J15">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K15">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E16">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F16">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G16">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H16">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I16">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J16">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K16">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,28 +1056,28 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>1.558205402448998</v>
+        <v>1.601379130739802</v>
       </c>
       <c r="E17">
-        <v>0.9297394187641809</v>
+        <v>0.9314703769149532</v>
       </c>
       <c r="F17">
-        <v>0.6942013916693346</v>
+        <v>0.8009470426388949</v>
       </c>
       <c r="G17">
-        <v>0.8284354724342672</v>
+        <v>0.8740987623616951</v>
       </c>
       <c r="H17">
-        <v>1.870025260891379</v>
+        <v>1.96201579906171</v>
       </c>
       <c r="I17">
-        <v>1.3114425466317</v>
+        <v>1.285779914888802</v>
       </c>
       <c r="J17">
-        <v>1.043936680845271</v>
+        <v>0.9394166001342182</v>
       </c>
       <c r="K17">
-        <v>0.8047600949715861</v>
+        <v>0.6456386419163099</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1089,28 +1089,28 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>1.558205402448998</v>
+        <v>1.601379130739802</v>
       </c>
       <c r="E18">
-        <v>0.9297394187641809</v>
+        <v>0.9314703769149532</v>
       </c>
       <c r="F18">
-        <v>0.6942013916693346</v>
+        <v>0.8009470426388949</v>
       </c>
       <c r="G18">
-        <v>0.8284354724342672</v>
+        <v>0.8740987623616951</v>
       </c>
       <c r="H18">
-        <v>1.870025260891379</v>
+        <v>1.96201579906171</v>
       </c>
       <c r="I18">
-        <v>1.3114425466317</v>
+        <v>1.285779914888802</v>
       </c>
       <c r="J18">
-        <v>1.043936680845271</v>
+        <v>0.9394166001342182</v>
       </c>
       <c r="K18">
-        <v>0.8047600949715861</v>
+        <v>0.6456386419163099</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1122,28 +1122,28 @@
         <v>37</v>
       </c>
       <c r="D19">
-        <v>47075.69191688816</v>
+        <v>48380.03416132332</v>
       </c>
       <c r="E19">
-        <v>28088.80419227133</v>
+        <v>28141.09900045176</v>
       </c>
       <c r="F19">
-        <v>20972.85171206449</v>
+        <v>24197.79585011767</v>
       </c>
       <c r="G19">
-        <v>25028.26200707756</v>
+        <v>26407.81759400892</v>
       </c>
       <c r="H19">
-        <v>56496.23144686945</v>
+        <v>59275.40178434169</v>
       </c>
       <c r="I19">
-        <v>39620.62074416012</v>
+        <v>38845.31464920851</v>
       </c>
       <c r="J19">
-        <v>31538.87253308977</v>
+        <v>28381.16616719693</v>
       </c>
       <c r="K19">
-        <v>24312.9938057881</v>
+        <v>19505.69915155015</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1153,28 +1153,28 @@
         <v>38</v>
       </c>
       <c r="D20">
-        <v>47075.69191688816</v>
+        <v>48380.03416132332</v>
       </c>
       <c r="E20">
-        <v>28088.80419227133</v>
+        <v>28141.09900045176</v>
       </c>
       <c r="F20">
-        <v>20972.85171206449</v>
+        <v>24197.79585011767</v>
       </c>
       <c r="G20">
-        <v>25028.26200707756</v>
+        <v>26407.81759400892</v>
       </c>
       <c r="H20">
-        <v>56496.23144686945</v>
+        <v>59275.40178434169</v>
       </c>
       <c r="I20">
-        <v>39620.62074416012</v>
+        <v>38845.31464920851</v>
       </c>
       <c r="J20">
-        <v>31538.87253308977</v>
+        <v>28381.16616719693</v>
       </c>
       <c r="K20">
-        <v>24312.9938057881</v>
+        <v>19505.69915155015</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.557041079155158</v>
+        <v>1.625759216260176</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>1.449701736904696</v>
       </c>
       <c r="H21">
-        <v>0.03407345779847873</v>
+        <v>0.0449347418406428</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.0720754925577</v>
+        <v>22.00206622444678</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>19.61940815223903</v>
       </c>
       <c r="H22">
-        <v>0.4611300784765452</v>
+        <v>0.608120289811738</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.283104097751908</v>
+        <v>1.339732355342368</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>1.194649430925588</v>
       </c>
       <c r="H23">
-        <v>0.02807876677828364</v>
+        <v>0.0370291780730902</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.6968490701625</v>
+        <v>14.30134304589041</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>12.75261529895537</v>
       </c>
       <c r="H24">
-        <v>0.2997345510097544</v>
+        <v>0.3952781883776297</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1323,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22201.1051223754</v>
+        <v>23172.82299649055</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21140.55199538002</v>
+        <v>21084.506390957</v>
       </c>
       <c r="H25">
-        <v>524.9953529422896</v>
+        <v>688.0425037882308</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>22201.1051223754</v>
+        <v>23172.82299649055</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>21140.55199538002</v>
+        <v>21084.506390957</v>
       </c>
       <c r="H26">
-        <v>524.9953529422896</v>
+        <v>688.0425037882308</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.2739369814032501</v>
+        <v>0.2860268609178082</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0.2550523059791074</v>
       </c>
       <c r="H27">
-        <v>0.005994691020195088</v>
+        <v>0.007905563767552595</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>14.85378425554205</v>
       </c>
       <c r="G28">
-        <v>0.02109687211317109</v>
+        <v>0.1945633015512134</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>53</v>
       </c>
       <c r="G29">
-        <v>0.07527605105620702</v>
+        <v>0.6942240983718936</v>
       </c>
       <c r="J29">
         <v>18</v>
@@ -1479,7 +1479,7 @@
         <v>12.41578425554205</v>
       </c>
       <c r="G30">
-        <v>0.01763417376458556</v>
+        <v>0.1626289930261063</v>
       </c>
       <c r="J30">
         <v>4.216681445278433</v>
@@ -1500,7 +1500,7 @@
         <v>121.9</v>
       </c>
       <c r="G31">
-        <v>0.1731349174292761</v>
+        <v>1.596715426255355</v>
       </c>
       <c r="J31">
         <v>41.4</v>
@@ -1515,16 +1515,16 @@
         <v>32</v>
       </c>
       <c r="E32">
-        <v>17064.33101269439</v>
+        <v>17062.47028169034</v>
       </c>
       <c r="F32">
-        <v>226460.5643178737</v>
+        <v>226313.2560207048</v>
       </c>
       <c r="G32">
-        <v>265.8521349296111</v>
+        <v>2421.491223793952</v>
       </c>
       <c r="J32">
-        <v>82971.15113471502</v>
+        <v>82966.19500806108</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1534,16 +1534,16 @@
         <v>33</v>
       </c>
       <c r="E33">
-        <v>17064.33101269439</v>
+        <v>17062.47028169034</v>
       </c>
       <c r="F33">
-        <v>226460.5643178737</v>
+        <v>226313.2560207048</v>
       </c>
       <c r="G33">
-        <v>265.8521349296111</v>
+        <v>2421.491223793952</v>
       </c>
       <c r="J33">
-        <v>82971.15113471502</v>
+        <v>82966.19500806108</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1561,7 +1561,7 @@
         <v>2.438</v>
       </c>
       <c r="G34">
-        <v>0.003462698348585523</v>
+        <v>0.03193430852510711</v>
       </c>
       <c r="J34">
         <v>0.828</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.5593083623242844</v>
+        <v>0.4778449862469138</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2.797461927216429</v>
+        <v>2.798761154772914</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>4.172777436521356</v>
+        <v>3.565011559061765</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>20.87075179943082</v>
+        <v>20.88044481995009</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.4675072587208145</v>
+        <v>0.3994147319475549</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.338305387628951</v>
+        <v>2.339391368734012</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>4.590055180173492</v>
+        <v>3.921512714967942</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>22.95782697937391</v>
+        <v>22.96848930194509</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>8048.963634551596</v>
+        <v>6997.70864142978</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>54249.72654835841</v>
+        <v>54098.89260468971</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>8048.963634551596</v>
+        <v>6997.70864142978</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>54249.72654835841</v>
+        <v>54098.89260468971</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.09180110360346984</v>
+        <v>0.07843025429935883</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.4591565395874781</v>
+        <v>0.4593697860389019</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -1877,28 +1877,28 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5623836316729987</v>
+        <v>0.5808333015772593</v>
       </c>
       <c r="E2">
-        <v>0.3446372946192738</v>
+        <v>0.3529647796197884</v>
       </c>
       <c r="F2">
-        <v>0.2724126267001394</v>
+        <v>0.3155621469834951</v>
       </c>
       <c r="G2">
-        <v>0.3279194389882329</v>
+        <v>0.3418422999886261</v>
       </c>
       <c r="H2">
-        <v>0.5974955390934258</v>
+        <v>0.5955201653415718</v>
       </c>
       <c r="I2">
-        <v>0.3823720759032635</v>
+        <v>0.3786839782465292</v>
       </c>
       <c r="J2">
-        <v>0.3232236904773439</v>
+        <v>0.3003793111232157</v>
       </c>
       <c r="K2">
-        <v>0.2536015769539177</v>
+        <v>0.2283321339905232</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1910,28 +1910,28 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>7.260913816869917</v>
+        <v>7.499116807817613</v>
       </c>
       <c r="E3">
-        <v>4.449599087486918</v>
+        <v>4.557114931645005</v>
       </c>
       <c r="F3">
-        <v>3.517109129248216</v>
+        <v>4.074210955068954</v>
       </c>
       <c r="G3">
-        <v>4.233755485178017</v>
+        <v>4.41351301742941</v>
       </c>
       <c r="H3">
-        <v>7.714242326747097</v>
+        <v>7.688738350883412</v>
       </c>
       <c r="I3">
-        <v>4.93679142270196</v>
+        <v>4.889174533223716</v>
       </c>
       <c r="J3">
-        <v>4.173128853599442</v>
+        <v>3.878185935014191</v>
       </c>
       <c r="K3">
-        <v>3.27424037681698</v>
+        <v>2.94798755361212</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1943,28 +1943,28 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4099044415187304</v>
+        <v>0.4233518486130895</v>
       </c>
       <c r="E4">
-        <v>0.2511957137820486</v>
+        <v>0.2572653660552433</v>
       </c>
       <c r="F4">
-        <v>0.1985533349859269</v>
+        <v>0.230003716927047</v>
       </c>
       <c r="G4">
-        <v>0.2390105737994945</v>
+        <v>0.2491585266226085</v>
       </c>
       <c r="H4">
-        <v>0.4354964502317368</v>
+        <v>0.4340566599730201</v>
       </c>
       <c r="I4">
-        <v>0.2786994560265223</v>
+        <v>0.2760113130488312</v>
       </c>
       <c r="J4">
-        <v>0.2355879845517556</v>
+        <v>0.2189374064879177</v>
       </c>
       <c r="K4">
-        <v>0.1848425290407611</v>
+        <v>0.1664243953646687</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1976,28 +1976,28 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>4.719593980965446</v>
+        <v>4.874425925081448</v>
       </c>
       <c r="E5">
-        <v>2.892239406866497</v>
+        <v>2.962124705569253</v>
       </c>
       <c r="F5">
-        <v>2.28612093401134</v>
+        <v>2.64823712079482</v>
       </c>
       <c r="G5">
-        <v>2.751941065365711</v>
+        <v>2.868783461329117</v>
       </c>
       <c r="H5">
-        <v>5.014257512385613</v>
+        <v>4.997679928074218</v>
       </c>
       <c r="I5">
-        <v>3.208914424756274</v>
+        <v>3.177963446595415</v>
       </c>
       <c r="J5">
-        <v>2.712533754839638</v>
+        <v>2.520820857759224</v>
       </c>
       <c r="K5">
-        <v>2.128256244931037</v>
+        <v>1.916191909847878</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2009,28 +2009,28 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>28245.41515013289</v>
+        <v>29028.02049679355</v>
       </c>
       <c r="E6">
-        <v>16853.28251536279</v>
+        <v>16884.65940027254</v>
       </c>
       <c r="F6">
-        <v>12583.7110272387</v>
+        <v>14518.6775100689</v>
       </c>
       <c r="G6">
-        <v>15016.95720424653</v>
+        <v>15844.69055640575</v>
       </c>
       <c r="H6">
-        <v>33897.73886812167</v>
+        <v>35565.24107060657</v>
       </c>
       <c r="I6">
-        <v>23772.37244649607</v>
+        <v>23307.18878952409</v>
       </c>
       <c r="J6">
-        <v>18923.32351985386</v>
+        <v>17028.69970031906</v>
       </c>
       <c r="K6">
-        <v>14587.79628347286</v>
+        <v>11703.4194909308</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2040,28 +2040,28 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>28245.41515013289</v>
+        <v>29028.02049679355</v>
       </c>
       <c r="E7">
-        <v>16853.28251536279</v>
+        <v>16884.65940027254</v>
       </c>
       <c r="F7">
-        <v>12583.7110272387</v>
+        <v>14518.6775100689</v>
       </c>
       <c r="G7">
-        <v>15016.95720424653</v>
+        <v>15844.69055640575</v>
       </c>
       <c r="H7">
-        <v>33897.73886812167</v>
+        <v>35565.24107060657</v>
       </c>
       <c r="I7">
-        <v>23772.37244649607</v>
+        <v>23307.18878952409</v>
       </c>
       <c r="J7">
-        <v>18923.32351985386</v>
+        <v>17028.69970031906</v>
       </c>
       <c r="K7">
-        <v>14587.79628347286</v>
+        <v>11703.4194909308</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2073,28 +2073,28 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>0.1524791901542683</v>
+        <v>0.1574814529641699</v>
       </c>
       <c r="E8">
-        <v>0.09344158083722529</v>
+        <v>0.09569941356454512</v>
       </c>
       <c r="F8">
-        <v>0.07385929171421253</v>
+        <v>0.08555843005644805</v>
       </c>
       <c r="G8">
-        <v>0.08890886518873836</v>
+        <v>0.09268377336601762</v>
       </c>
       <c r="H8">
-        <v>0.161999088861689</v>
+        <v>0.1614635053685517</v>
       </c>
       <c r="I8">
-        <v>0.1036726198767412</v>
+        <v>0.102672665197698</v>
       </c>
       <c r="J8">
-        <v>0.08763570592558828</v>
+        <v>0.081441904635298</v>
       </c>
       <c r="K8">
-        <v>0.06875904791315658</v>
+        <v>0.06190773862585452</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0213422972842461</v>
+        <v>0.01933122685472016</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9658447815947637</v>
+        <v>0.9678558520242904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2452721943163966</v>
+        <v>0.2221603591373998</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.09978301753173</v>
+        <v>11.12289485271074</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01827639485529114</v>
+        <v>0.01655422236550266</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.827097493875617</v>
+        <v>0.8288196663654062</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1226360971581983</v>
+        <v>0.1110801795686999</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.549891508765866</v>
+        <v>5.561447426355369</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2148.584422211642</v>
+        <v>1946.124746043815</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>97234.09923357799</v>
+        <v>97436.55890975919</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2148.584422211642</v>
+        <v>1946.124746043815</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>97234.09923357799</v>
+        <v>97436.55890975919</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.003065902428954958</v>
+        <v>0.002777004489217498</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1387472877191467</v>
+        <v>0.1390361856588842</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2342,25 +2342,25 @@
         <v>0.02873578756825177</v>
       </c>
       <c r="E16">
-        <v>0.04066969425747421</v>
+        <v>0.04238003028080493</v>
       </c>
       <c r="F16">
-        <v>0.03069415722945129</v>
+        <v>0.03214863088223047</v>
       </c>
       <c r="G16">
-        <v>0.03930329530975475</v>
+        <v>0.02655405025028185</v>
       </c>
       <c r="H16">
         <v>0.03822248963867147</v>
       </c>
       <c r="I16">
-        <v>0.025046320301432</v>
+        <v>0.01692176807637329</v>
       </c>
       <c r="J16">
-        <v>0.02670586672664938</v>
+        <v>0.01793090282074867</v>
       </c>
       <c r="K16">
-        <v>0.007176229328296224</v>
+        <v>0.007176229328296225</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2375,25 +2375,25 @@
         <v>0.3513098127417026</v>
       </c>
       <c r="E17">
-        <v>0.4972079724601333</v>
+        <v>0.5181177118105712</v>
       </c>
       <c r="F17">
-        <v>0.3752518911455378</v>
+        <v>0.3930335811507956</v>
       </c>
       <c r="G17">
-        <v>0.4805030411157724</v>
+        <v>0.3246369496156398</v>
       </c>
       <c r="H17">
         <v>0.4672896347660561</v>
       </c>
       <c r="I17">
-        <v>0.3062041739439298</v>
+        <v>0.2068773357977219</v>
       </c>
       <c r="J17">
-        <v>0.3264929842817197</v>
+        <v>0.2192145281309971</v>
       </c>
       <c r="K17">
-        <v>0.08773310199093452</v>
+        <v>0.08773310199093454</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2408,25 +2408,25 @@
         <v>0.02135828150067601</v>
       </c>
       <c r="E18">
-        <v>0.03022832683581142</v>
+        <v>0.03149955833278293</v>
       </c>
       <c r="F18">
-        <v>0.022813867515395</v>
+        <v>0.02389492567806376</v>
       </c>
       <c r="G18">
-        <v>0.02921273144632353</v>
+        <v>0.01973667430835341</v>
       </c>
       <c r="H18">
         <v>0.02840940730858429</v>
       </c>
       <c r="I18">
-        <v>0.01861603264860947</v>
+        <v>0.01257734402462113</v>
       </c>
       <c r="J18">
-        <v>0.01984951405673327</v>
+        <v>0.01332739772999773</v>
       </c>
       <c r="K18">
-        <v>0.005333834186486599</v>
+        <v>0.0053338341864866</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2441,25 +2441,25 @@
         <v>0.2459168689191918</v>
       </c>
       <c r="E19">
-        <v>0.3480455807220932</v>
+        <v>0.3626823982673998</v>
       </c>
       <c r="F19">
-        <v>0.2626763238018764</v>
+        <v>0.2751235068055569</v>
       </c>
       <c r="G19">
-        <v>0.3363521287810406</v>
+        <v>0.2272458647309478</v>
       </c>
       <c r="H19">
         <v>0.3271027443362392</v>
       </c>
       <c r="I19">
-        <v>0.2143429217607508</v>
+        <v>0.1448141350584053</v>
       </c>
       <c r="J19">
-        <v>0.2285450889972038</v>
+        <v>0.1534501696916979</v>
       </c>
       <c r="K19">
-        <v>0.06141317139365416</v>
+        <v>0.06141317139365417</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2471,28 +2471,28 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>2244.46319862791</v>
+        <v>2242.266076979607</v>
       </c>
       <c r="E20">
-        <v>2955.507362081593</v>
+        <v>2955.50736208184</v>
       </c>
       <c r="F20">
-        <v>2058.635097661267</v>
+        <v>2055.94099254084</v>
       </c>
       <c r="G20">
-        <v>2843.819678633008</v>
+        <v>2041.317139183479</v>
       </c>
       <c r="H20">
-        <v>2996.598183470184</v>
+        <v>2972.877684931364</v>
       </c>
       <c r="I20">
-        <v>1812.245461588042</v>
+        <v>1300.844687496109</v>
       </c>
       <c r="J20">
-        <v>1920.319266427533</v>
+        <v>1389.381679294382</v>
       </c>
       <c r="K20">
-        <v>563.5974471897632</v>
+        <v>558.905880781692</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2502,28 +2502,28 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>2244.46319862791</v>
+        <v>2242.266076979607</v>
       </c>
       <c r="E21">
-        <v>2955.507362081593</v>
+        <v>2955.50736208184</v>
       </c>
       <c r="F21">
-        <v>2058.635097661267</v>
+        <v>2055.94099254084</v>
       </c>
       <c r="G21">
-        <v>2843.819678633008</v>
+        <v>2041.317139183479</v>
       </c>
       <c r="H21">
-        <v>2996.598183470184</v>
+        <v>2972.877684931364</v>
       </c>
       <c r="I21">
-        <v>1812.245461588042</v>
+        <v>1300.844687496109</v>
       </c>
       <c r="J21">
-        <v>1920.319266427533</v>
+        <v>1389.381679294382</v>
       </c>
       <c r="K21">
-        <v>563.5974471897632</v>
+        <v>558.905880781692</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2538,22 +2538,22 @@
         <v>0.007377506067575756</v>
       </c>
       <c r="E22">
-        <v>0.0104413674216628</v>
+        <v>0.010880471948022</v>
       </c>
       <c r="F22">
-        <v>0.007880289714056294</v>
+        <v>0.008253705204166708</v>
       </c>
       <c r="G22">
-        <v>0.01009056386343122</v>
+        <v>0.006817375941928436</v>
       </c>
       <c r="H22">
         <v>0.009813082330087177</v>
       </c>
       <c r="I22">
-        <v>0.006430287652822526</v>
+        <v>0.00434442405175216</v>
       </c>
       <c r="J22">
-        <v>0.006856352669916113</v>
+        <v>0.00460350509075094</v>
       </c>
       <c r="K22">
         <v>0.001842395141809625</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06759160442032494</v>
+        <v>0.06087601873334331</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0101534267165431</v>
+        <v>0.01045346977590048</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.022629214975428</v>
+        <v>3.622959590148473</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6042684042250162</v>
+        <v>0.6221250890407218</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.05954634599037409</v>
+        <v>0.05363009955304636</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008944889908093067</v>
+        <v>0.009209219597819035</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6074170114612896</v>
+        <v>0.5470668981124195</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09124452903797743</v>
+        <v>0.09394088844514899</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1108.178418931087</v>
+        <v>929.1147178539024</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>216.2179822054473</v>
+        <v>234.1062471196427</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1108.178418931087</v>
+        <v>929.1147178539024</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>216.2179822054473</v>
+        <v>234.1062471196427</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>999.8832835002627</v>
+        <v>838.328901351297</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>195.0743767737162</v>
+        <v>211.231777558158</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>999.8832835002627</v>
+        <v>838.328901351297</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>195.0743767737162</v>
+        <v>211.231777558158</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.008045258429950856</v>
+        <v>0.007245919180296947</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.001208536808450032</v>
+        <v>0.001244250178081444</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2984,25 +2984,25 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>3796.59743533339</v>
+        <v>3693.989490229447</v>
       </c>
       <c r="E13">
-        <v>2404.951384819186</v>
+        <v>2387.649283615163</v>
       </c>
       <c r="F13">
-        <v>312.2866940540686</v>
+        <v>316.5075770534651</v>
       </c>
       <c r="G13">
-        <v>4097.712303532799</v>
+        <v>4102.84961164336</v>
       </c>
       <c r="H13">
-        <v>1953.328471425699</v>
+        <v>1994.577776090815</v>
       </c>
       <c r="I13">
-        <v>5381.646620793816</v>
+        <v>5523.849004682487</v>
       </c>
       <c r="J13">
-        <v>198.0036232439857</v>
+        <v>202.2426163856667</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3012,25 +3012,25 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>3796.59743533339</v>
+        <v>3693.989490229447</v>
       </c>
       <c r="E14">
-        <v>2404.951384819186</v>
+        <v>2387.649283615163</v>
       </c>
       <c r="F14">
-        <v>312.2866940540686</v>
+        <v>316.5075770534651</v>
       </c>
       <c r="G14">
-        <v>4097.712303532799</v>
+        <v>4102.84961164336</v>
       </c>
       <c r="H14">
-        <v>1953.328471425699</v>
+        <v>1994.577776090815</v>
       </c>
       <c r="I14">
-        <v>5381.646620793816</v>
+        <v>5523.849004682487</v>
       </c>
       <c r="J14">
-        <v>198.0036232439857</v>
+        <v>202.2426163856667</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3042,25 +3042,25 @@
         <v>32</v>
       </c>
       <c r="D15">
-        <v>2939.941706557175</v>
+        <v>2860.458649519556</v>
       </c>
       <c r="E15">
-        <v>1862.272059287664</v>
+        <v>1848.87997956701</v>
       </c>
       <c r="F15">
-        <v>241.8242658740227</v>
+        <v>245.0930213181887</v>
       </c>
       <c r="G15">
-        <v>3173.148145962881</v>
+        <v>3177.125905738498</v>
       </c>
       <c r="H15">
-        <v>1512.580535316335</v>
+        <v>1544.518999965204</v>
       </c>
       <c r="I15">
-        <v>4167.373753311917</v>
+        <v>4277.484944656244</v>
       </c>
       <c r="J15">
-        <v>153.3178098857721</v>
+        <v>156.6013664168944</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3070,25 +3070,25 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>2939.941706557175</v>
+        <v>2860.458649519556</v>
       </c>
       <c r="E16">
-        <v>1862.272059287664</v>
+        <v>1848.87997956701</v>
       </c>
       <c r="F16">
-        <v>241.8242658740227</v>
+        <v>245.0930213181887</v>
       </c>
       <c r="G16">
-        <v>3173.148145962881</v>
+        <v>3177.125905738498</v>
       </c>
       <c r="H16">
-        <v>1512.580535316335</v>
+        <v>1544.518999965204</v>
       </c>
       <c r="I16">
-        <v>4167.373753311917</v>
+        <v>4277.484944656244</v>
       </c>
       <c r="J16">
-        <v>153.3178098857721</v>
+        <v>156.6013664168944</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3141,16 +3141,16 @@
         <v>0.002378005689463596</v>
       </c>
       <c r="G18">
-        <v>0.003285001496030339</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002093391890217372</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.002218231947147448</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>175.4584675811645</v>
       </c>
       <c r="G19">
-        <v>242.3801301439821</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>154.458559427261</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>163.6697422174238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3195,13 +3195,13 @@
         <v>0.0006234210136519505</v>
       </c>
       <c r="G20">
-        <v>0.0008612001945905181</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0005488062959447624</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0005815345249732096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3219,13 +3219,13 @@
         <v>0.007018338703246581</v>
       </c>
       <c r="G21">
-        <v>0.009695205205759283</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.006178342377090439</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.006546789688696954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3237,19 +3237,19 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1323.841088473165</v>
+        <v>1350.617809518257</v>
       </c>
       <c r="F22">
-        <v>1029.541362170236</v>
+        <v>1025.859173550944</v>
       </c>
       <c r="G22">
-        <v>1299.578391953404</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>828.1660966378641</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>869.8484731351551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3259,19 +3259,19 @@
         <v>29</v>
       </c>
       <c r="E23">
-        <v>1323.841088473165</v>
+        <v>1350.617809518257</v>
       </c>
       <c r="F23">
-        <v>1029.541362170236</v>
+        <v>1025.859173550944</v>
       </c>
       <c r="G23">
-        <v>1299.578391953404</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>828.1660966378641</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>869.8484731351551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3283,19 +3283,19 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1323.841088473161</v>
+        <v>1350.617809518341</v>
       </c>
       <c r="F24">
-        <v>1029.541362170234</v>
+        <v>1025.859173550945</v>
       </c>
       <c r="G24">
-        <v>1299.578391953403</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>828.1660966378624</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>869.8484731351546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1323.841088473161</v>
+        <v>1350.617809518341</v>
       </c>
       <c r="F25">
-        <v>1029.541362170234</v>
+        <v>1025.859173550945</v>
       </c>
       <c r="G25">
-        <v>1299.578391953403</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>828.1660966378624</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>869.8484731351546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3335,13 +3335,13 @@
         <v>0.001754584675811645</v>
       </c>
       <c r="G26">
-        <v>0.002423801301439821</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.00154458559427261</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.001636697422174239</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01370455871991792</v>
+        <v>0.01370455871991791</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3445,13 +3445,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01370455871991792</v>
+        <v>0.01370455871991791</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.00530032569194301</v>
+        <v>0.005324339521981214</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01800397299400538</v>
+        <v>0.01804059408481364</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.00530032569194301</v>
+        <v>0.005324339521981214</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3522,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005462223194557385</v>
+        <v>0.005462223194557393</v>
       </c>
       <c r="J5">
-        <v>0.008895785414216062</v>
+        <v>0.008895785414216066</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.005462223194557385</v>
+        <v>0.005462223194557393</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01800397299400538</v>
+        <v>0.01804059408481364</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.008895785414216062</v>
+        <v>0.008895785414216066</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.12632657335907</v>
+        <v>3.126326573359065</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3.12632657335907</v>
+        <v>3.126326573359065</v>
       </c>
       <c r="F11">
-        <v>1.706459571714227</v>
+        <v>1.722637856339532</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.089299487810514</v>
+        <v>6.105477772435818</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.706459571714227</v>
+        <v>1.722637856339532</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3729,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6560985812908227</v>
+        <v>0.6560985812908265</v>
       </c>
       <c r="J13">
-        <v>1.257026876309644</v>
+        <v>1.257026876309645</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6560985812908227</v>
+        <v>0.6560985812908265</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3774,10 +3774,10 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>6.089299487810514</v>
+        <v>6.105477772435818</v>
       </c>
       <c r="G16">
-        <v>1.257026876309644</v>
+        <v>1.257026876309645</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.008584895860307189</v>
+        <v>0.008584895860307175</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3826,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.008584895860307189</v>
+        <v>0.008584895860307175</v>
       </c>
       <c r="F19">
-        <v>0.002532940362423694</v>
+        <v>0.002556954192461899</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01378371036648842</v>
+        <v>0.01382033145729668</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.002532940362423694</v>
+        <v>0.002556954192461899</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001421840613459184</v>
+        <v>0.001421840613459192</v>
       </c>
       <c r="J21">
-        <v>0.003582405581538976</v>
+        <v>0.00358240558153898</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.001421840613459184</v>
+        <v>0.001421840613459192</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <v>0.01378371036648842</v>
+        <v>0.01382033145729668</v>
       </c>
       <c r="G24">
-        <v>0.003582405581538976</v>
+        <v>0.00358240558153898</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.1634215636446427</v>
+        <v>0.1634215636446426</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.1634215636446427</v>
+        <v>0.1634215636446426</v>
       </c>
       <c r="F35">
-        <v>0.06320433441934183</v>
+        <v>0.06349069005720973</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.2146904164247253</v>
+        <v>0.2151271087724738</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.06320433441934183</v>
+        <v>0.06349069005720973</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0.06513489953771744</v>
+        <v>0.06513489953771753</v>
       </c>
       <c r="J37">
-        <v>0.1060788013645069</v>
+        <v>0.106078801364507</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.06513489953771744</v>
+        <v>0.06513489953771753</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>0.2146904164247253</v>
+        <v>0.2151271087724738</v>
       </c>
       <c r="G40">
-        <v>0.1060788013645069</v>
+        <v>0.106078801364507</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4362,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1453.124166487195</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4378,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>27386.62078262545</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F51">
-        <v>14948.58584821665</v>
+        <v>15090.30762153187</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>5747.423572107634</v>
+        <v>5747.423572108149</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>53342.26351322013</v>
+        <v>53483.98528653274</v>
       </c>
       <c r="G53">
-        <v>11011.55543647247</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4437,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1453.124166487195</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4453,10 +4453,10 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>27386.62078262545</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F55">
-        <v>14948.58584821665</v>
+        <v>15090.30762153187</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5747.423572107634</v>
+        <v>5747.423572108149</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4491,10 +4491,10 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>53342.26351322013</v>
+        <v>53483.98528653274</v>
       </c>
       <c r="G57">
-        <v>11011.55543647247</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
   </sheetData>
